--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -58,12 +58,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Keep working on Result,
-Data Collection and Analysis
- (Get to know about the 
-Qlik Application Systems)</t>
-  </si>
-  <si>
     <t>No 
 (Summer)</t>
   </si>
@@ -95,12 +89,6 @@
 Theoritical Background</t>
   </si>
   <si>
-    <t>Current  State of Art,
-Research Methodology,
-Learning Spark ,
-Envisaging what to do in Application</t>
-  </si>
-  <si>
     <t xml:space="preserve">Start working on Application 
 and Result Part,
 Data Collection
@@ -113,6 +101,19 @@
     <t>Wrapping Up 
 University Presentation 
 and Two Opposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep working on Result,
+Data Collection and Analysis
+</t>
+  </si>
+  <si>
+    <t>Current  State of Art,
+Research Methodology,
+Learning Spark ,
+Envisaging what to do in Application
+ (Get to know about the 
+Qlik Application Systems)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +269,7 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -306,46 +307,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -699,7 +660,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,21 +680,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -744,52 +705,52 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -803,13 +764,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -817,35 +778,35 @@
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>12</v>
@@ -863,30 +824,30 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Month</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Progress Status</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -115,11 +112,17 @@
  (Get to know about the 
 Qlik Application Systems)</t>
   </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,6 +449,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -481,6 +501,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +728,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -705,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -719,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -733,10 +770,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -747,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -764,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -778,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
@@ -789,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>12</v>
@@ -800,13 +837,13 @@
     </row>
     <row r="10" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>12</v>
